--- a/vbai-fhir/ValueSet-Winograd-29.xlsx
+++ b/vbai-fhir/ValueSet-Winograd-29.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/ValueSet-Winograd-29.xlsx
+++ b/vbai-fhir/ValueSet-Winograd-29.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
